--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
@@ -158,12 +158,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.41796875" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.41796875" customWidth="1"/>
-    <col min="6" max="6" width="9.27734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.41796875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.41796875" customWidth="1"/>
+    <col min="6" max="6" width="11.27734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
   <si>
     <t>Number</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>01/01/2020 10:15:05</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
   </si>
   <si>
     <t>Value</t>
@@ -50,9 +53,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -103,7 +103,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyFill="0" applyProtection="0"/>
@@ -128,9 +128,6 @@
   <cellXfs>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -161,7 +158,7 @@
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.41796875" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="12.41796875" customWidth="1"/>
     <col min="6" max="6" width="11.27734375" customWidth="1"/>
   </cols>
@@ -204,11 +201,11 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
-        <v>43831</v>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10" count="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12" count="12">
   <si>
     <t>Number</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Bool</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>value</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -192,23 +198,23 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
@@ -197,7 +197,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="28.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.WithRender.verified.xlsx
@@ -161,12 +161,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.41796875" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.41796875" customWidth="1"/>
-    <col min="6" max="6" width="11.27734375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
